--- a/Mifos Automation Excels/Client/2475-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-PERIODIC-Newcreateloan2.xlsx
+++ b/Mifos Automation Excels/Client/2475-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-PERIODIC-Newcreateloan2.xlsx
@@ -597,7 +597,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD15"/>
+      <selection activeCell="A7" sqref="A7:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,6 +817,7 @@
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
       <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -858,6 +859,9 @@
         <v>0</v>
       </c>
       <c r="N3" s="7">
+        <v>0</v>
+      </c>
+      <c r="O3" s="7">
         <v>0</v>
       </c>
       <c r="P3" s="7">
@@ -889,6 +893,7 @@
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
       <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -930,6 +935,9 @@
       <c r="N5" s="7">
         <v>0</v>
       </c>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
       <c r="P5" s="7">
         <v>888.49</v>
       </c>
@@ -973,6 +981,9 @@
       <c r="N6" s="7">
         <v>0</v>
       </c>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
       <c r="P6" s="7">
         <v>888.49</v>
       </c>
@@ -1016,6 +1027,9 @@
       <c r="N7" s="7">
         <v>0</v>
       </c>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
       <c r="P7" s="7">
         <v>888.49</v>
       </c>
@@ -1059,6 +1073,9 @@
       <c r="N8" s="7">
         <v>0</v>
       </c>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
       <c r="P8" s="7">
         <v>888.49</v>
       </c>
@@ -1102,6 +1119,9 @@
       <c r="N9" s="7">
         <v>0</v>
       </c>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
       <c r="P9" s="7">
         <v>888.49</v>
       </c>
@@ -1145,6 +1165,9 @@
       <c r="N10" s="7">
         <v>0</v>
       </c>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
       <c r="P10" s="7">
         <v>888.49</v>
       </c>
@@ -1188,6 +1211,9 @@
       <c r="N11" s="7">
         <v>0</v>
       </c>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
       <c r="P11" s="7">
         <v>888.49</v>
       </c>
@@ -1231,6 +1257,9 @@
       <c r="N12" s="7">
         <v>0</v>
       </c>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
       <c r="P12" s="7">
         <v>888.49</v>
       </c>
@@ -1274,6 +1303,9 @@
       <c r="N13" s="7">
         <v>0</v>
       </c>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
       <c r="P13" s="7">
         <v>888.49</v>
       </c>
@@ -1317,6 +1349,9 @@
       <c r="N14" s="7">
         <v>0</v>
       </c>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
       <c r="P14" s="7">
         <v>888.49</v>
       </c>
@@ -1358,6 +1393,9 @@
         <v>0</v>
       </c>
       <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7">
         <v>0</v>
       </c>
       <c r="P15" s="7">
@@ -1375,7 +1413,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="A2" sqref="A2:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1427,7 +1465,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>27</v>
@@ -1461,7 +1499,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>27</v>
@@ -1495,7 +1533,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>27</v>

--- a/Mifos Automation Excels/Client/2475-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-PERIODIC-Newcreateloan2.xlsx
+++ b/Mifos Automation Excels/Client/2475-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-PERIODIC-Newcreateloan2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -849,15 +849,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -897,15 +897,16 @@
       <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="10"/>
+      <c r="O1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="11"/>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="11"/>
+      <c r="Q1" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5">
@@ -932,8 +933,9 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -971,15 +973,16 @@
       <c r="M3" s="4">
         <v>0</v>
       </c>
-      <c r="N3" s="4">
-        <v>0</v>
-      </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N3" s="4"/>
+      <c r="O3" s="4">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5">
@@ -1006,8 +1009,9 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" s="4"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -1043,15 +1047,16 @@
       <c r="M5" s="4">
         <v>0</v>
       </c>
-      <c r="N5" s="4">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -1087,15 +1092,16 @@
       <c r="M6" s="4">
         <v>0</v>
       </c>
-      <c r="N6" s="4">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -1131,15 +1137,16 @@
       <c r="M7" s="4">
         <v>0</v>
       </c>
-      <c r="N7" s="4">
-        <v>0</v>
-      </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N7" s="4"/>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -1175,15 +1182,16 @@
       <c r="M8" s="4">
         <v>0</v>
       </c>
-      <c r="N8" s="4">
-        <v>0</v>
-      </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N8" s="4"/>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -1219,15 +1227,16 @@
       <c r="M9" s="4">
         <v>0</v>
       </c>
-      <c r="N9" s="4">
-        <v>0</v>
-      </c>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N9" s="4"/>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -1263,15 +1272,16 @@
       <c r="M10" s="4">
         <v>0</v>
       </c>
-      <c r="N10" s="4">
-        <v>0</v>
-      </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N10" s="4"/>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -1307,15 +1317,16 @@
       <c r="M11" s="4">
         <v>0</v>
       </c>
-      <c r="N11" s="4">
-        <v>0</v>
-      </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N11" s="4"/>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -1351,15 +1362,16 @@
       <c r="M12" s="4">
         <v>0</v>
       </c>
-      <c r="N12" s="4">
-        <v>0</v>
-      </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N12" s="4"/>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -1395,15 +1407,16 @@
       <c r="M13" s="4">
         <v>0</v>
       </c>
-      <c r="N13" s="4">
-        <v>0</v>
-      </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N13" s="4"/>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -1439,15 +1452,16 @@
       <c r="M14" s="4">
         <v>0</v>
       </c>
-      <c r="N14" s="4">
-        <v>0</v>
-      </c>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N14" s="4"/>
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -1483,11 +1497,12 @@
       <c r="M15" s="4">
         <v>0</v>
       </c>
-      <c r="N15" s="4">
-        <v>0</v>
-      </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4">
+      <c r="N15" s="4"/>
+      <c r="O15" s="4">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4">
         <v>791.71</v>
       </c>
     </row>
@@ -1500,7 +1515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
